--- a/Threat Modeling/Checklist/Checklist.xlsx
+++ b/Threat Modeling/Checklist/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Desktop\HASUMS\HASUMS\Threat Modeling\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E1387-342D-4725-9816-2EA33D496289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16E7D0-BEAF-4443-9768-D6BCFBF715B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="5" r:id="rId1"/>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433650E9-8523-4B74-BA58-35715AE69A01}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -814,7 +814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
@@ -1490,6 +1490,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="A38:A39"/>
@@ -1504,16 +1514,6 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
